--- a/docs/templates/banff_example.xlsx
+++ b/docs/templates/banff_example.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY35"/>
+  <dimension ref="A1:BA35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,225 +398,235 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>xm</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>abo_i</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>adequacy</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>fixation_ff</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>fixation_paraffin</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>fixation_elec</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>fixation_rna</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>microscopy</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>c4d_if</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>c4d_ihc</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>dsa</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hist_dsa</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>i_score</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>t_score</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>v_score</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>g_score</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>ptc_score</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ti_score</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>cg_score</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>mm_score</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>cv_score</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ci_score</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>ct_score</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>ah_score</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>glomeruli</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>arteries</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>bk</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>gs</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>i_ifta_score</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>atma</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>ctma</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>atn</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>agn</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>cgn</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>infec</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>cni</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>ain</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>ptld</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>sptcbmml</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>leuscint</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>monofibneoint</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>newaif</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>othi_ifta</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>genetx</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>hist_aamr</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>hist_camr</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>hist_tcmr</t>
         </is>
@@ -644,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -656,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -691,38 +701,38 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>2</v>
       </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
         <v>3</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
       <c r="AI2">
         <v>0</v>
       </c>
@@ -733,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -772,6 +782,12 @@
         <v>0</v>
       </c>
       <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
         <v>0</v>
       </c>
     </row>
@@ -797,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -809,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -830,52 +846,52 @@
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>2</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>2</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>1</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>3</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
       <c r="AI3">
         <v>0</v>
       </c>
@@ -886,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -925,6 +941,12 @@
         <v>0</v>
       </c>
       <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
         <v>0</v>
       </c>
     </row>
@@ -962,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -983,13 +1005,13 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -997,38 +1019,38 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>3</v>
       </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
       <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
         <v>3</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
         <v>8</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
       <c r="AI4">
         <v>0</v>
       </c>
@@ -1078,6 +1100,12 @@
         <v>0</v>
       </c>
       <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
         <v>0</v>
       </c>
     </row>
@@ -1102,11 +1130,8 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1115,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1136,55 +1161,55 @@
         <v>0</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>3</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>3</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>2</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>3</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>3</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>2</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
         <v>22</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>3</v>
       </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
       <c r="AJ5">
         <v>0</v>
       </c>
@@ -1231,6 +1256,12 @@
         <v>0</v>
       </c>
       <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
         <v>0</v>
       </c>
     </row>
@@ -1256,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1268,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1303,38 +1334,38 @@
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
         <v>3</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>2</v>
       </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <v>4</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
       <c r="AI6">
         <v>0</v>
       </c>
@@ -1345,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -1384,6 +1415,12 @@
         <v>0</v>
       </c>
       <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
         <v>0</v>
       </c>
     </row>
@@ -1421,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1456,49 +1493,49 @@
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
         <v>2</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>2</v>
       </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <v>13</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
       <c r="AI7">
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -1537,6 +1574,12 @@
         <v>0</v>
       </c>
       <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
         <v>0</v>
       </c>
     </row>
@@ -1565,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1574,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1592,55 +1635,55 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>2</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>3</v>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
         <v>3</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>3</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>2</v>
       </c>
-      <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <v>7</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
       <c r="AI8">
         <v>0</v>
       </c>
@@ -1690,6 +1733,12 @@
         <v>0</v>
       </c>
       <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
         <v>0</v>
       </c>
     </row>
@@ -1715,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1727,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1762,38 +1811,38 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
         <v>3</v>
       </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
       <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
         <v>3</v>
       </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
         <v>11</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
       <c r="AI9">
         <v>0</v>
       </c>
@@ -1801,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -1843,6 +1892,12 @@
         <v>0</v>
       </c>
       <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
         <v>0</v>
       </c>
     </row>
@@ -1868,10 +1923,10 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1880,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1901,13 +1956,13 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1915,30 +1970,30 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
         <v>0</v>
       </c>
       <c r="AG10">
@@ -1996,6 +2051,12 @@
         <v>0</v>
       </c>
       <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
         <v>0</v>
       </c>
     </row>
@@ -2033,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2051,48 +2112,48 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>2</v>
       </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
       <c r="AA11">
         <v>1</v>
       </c>
       <c r="AB11">
         <v>1</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2149,6 +2210,12 @@
         <v>0</v>
       </c>
       <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
         <v>0</v>
       </c>
     </row>
@@ -2173,9 +2240,6 @@
       <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -2186,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2207,55 +2271,55 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
         <v>1</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>1</v>
       </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
       </c>
       <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
         <v>3</v>
       </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
       <c r="AJ12">
         <v>0</v>
       </c>
@@ -2302,6 +2366,12 @@
         <v>0</v>
       </c>
       <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
         <v>0</v>
       </c>
     </row>
@@ -2327,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2339,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2357,55 +2427,55 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>2</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>3</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>3</v>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
         <v>3</v>
-      </c>
-      <c r="Z13">
-        <v>3</v>
-      </c>
-      <c r="AA13">
-        <v>2</v>
       </c>
       <c r="AB13">
         <v>3</v>
       </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-      <c r="AF13">
+      <c r="AC13">
+        <v>2</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
         <v>20</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
       <c r="AI13">
         <v>0</v>
       </c>
@@ -2455,6 +2525,12 @@
         <v>0</v>
       </c>
       <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
         <v>0</v>
       </c>
     </row>
@@ -2483,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2492,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2513,55 +2589,55 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
       <c r="Z14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <v>3</v>
       </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14">
+      <c r="AC14">
+        <v>2</v>
+      </c>
+      <c r="AD14">
+        <v>3</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
         <v>24</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>2</v>
       </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
       <c r="AJ14">
         <v>0</v>
       </c>
@@ -2608,6 +2684,12 @@
         <v>0</v>
       </c>
       <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
         <v>0</v>
       </c>
     </row>
@@ -2636,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2645,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2663,55 +2745,55 @@
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>2</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>2</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <v>3</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>3</v>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
         <v>2</v>
       </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
       <c r="AB15">
         <v>1</v>
       </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <v>8</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
       <c r="AI15">
         <v>0</v>
       </c>
@@ -2761,6 +2843,12 @@
         <v>0</v>
       </c>
       <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
         <v>0</v>
       </c>
     </row>
@@ -2786,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2798,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2816,55 +2904,55 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>2</v>
       </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16" t="inlineStr">
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
         <v>3</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
       <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
         <v>6</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
       <c r="AI16">
         <v>0</v>
       </c>
@@ -2914,6 +3002,12 @@
         <v>0</v>
       </c>
       <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
         <v>0</v>
       </c>
     </row>
@@ -2939,9 +3033,6 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
@@ -2951,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2969,55 +3060,55 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <v>2</v>
       </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17" t="inlineStr">
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
         <v>3</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
       <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
         <v>6</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
       <c r="AI17">
         <v>0</v>
       </c>
@@ -3067,6 +3158,12 @@
         <v>0</v>
       </c>
       <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
         <v>0</v>
       </c>
     </row>
@@ -3092,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3104,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -3113,69 +3210,69 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>1</v>
       </c>
       <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
         <v>2</v>
       </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
         <v>17</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
-      </c>
       <c r="AI18">
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -3220,6 +3317,12 @@
         <v>0</v>
       </c>
       <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
         <v>0</v>
       </c>
     </row>
@@ -3245,10 +3348,10 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3257,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3292,38 +3395,38 @@
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
         <v>3</v>
       </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19">
-        <v>1</v>
-      </c>
       <c r="AB19">
         <v>1</v>
       </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
         <v>8</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
       <c r="AI19">
         <v>0</v>
       </c>
@@ -3373,6 +3476,12 @@
         <v>0</v>
       </c>
       <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
         <v>0</v>
       </c>
     </row>
@@ -3401,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -3410,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3431,52 +3540,52 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
         <v>1</v>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
         <v>3</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>2</v>
       </c>
-      <c r="AA20">
-        <v>1</v>
-      </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
         <v>5</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
       <c r="AI20">
         <v>0</v>
       </c>
@@ -3526,6 +3635,12 @@
         <v>0</v>
       </c>
       <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
         <v>0</v>
       </c>
     </row>
@@ -3563,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3584,52 +3699,52 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>2</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>2</v>
       </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21" t="inlineStr">
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="inlineStr">
         <is>
           <t>1a</t>
         </is>
       </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
         <v>3</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>2</v>
       </c>
-      <c r="AA21">
-        <v>1</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
         <v>38</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
       <c r="AI21">
         <v>0</v>
       </c>
@@ -3679,6 +3794,12 @@
         <v>0</v>
       </c>
       <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
         <v>0</v>
       </c>
     </row>
@@ -3704,10 +3825,10 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -3716,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3734,36 +3855,36 @@
         <v>0</v>
       </c>
       <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>3</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>2</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
         <v>3</v>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>3</v>
-      </c>
       <c r="Z22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>3</v>
@@ -3771,11 +3892,11 @@
       <c r="AB22">
         <v>3</v>
       </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
+      <c r="AC22">
+        <v>3</v>
+      </c>
+      <c r="AD22">
+        <v>3</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -3832,6 +3953,12 @@
         <v>0</v>
       </c>
       <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
         <v>0</v>
       </c>
     </row>
@@ -3857,7 +3984,7 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3869,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3878,45 +4005,45 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
         <v>2</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>3</v>
       </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
       <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
         <v>2</v>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>1a</t>
         </is>
       </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23">
-        <v>3</v>
-      </c>
       <c r="Z23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>3</v>
@@ -3924,23 +4051,23 @@
       <c r="AB23">
         <v>3</v>
       </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
+      <c r="AC23">
+        <v>3</v>
+      </c>
+      <c r="AD23">
+        <v>3</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
         <v>18</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>1</v>
-      </c>
       <c r="AI23">
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -3985,6 +4112,12 @@
         <v>0</v>
       </c>
       <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
         <v>0</v>
       </c>
     </row>
@@ -4022,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -4040,36 +4173,36 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
         <v>2</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
         <v>2</v>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>1</v>
@@ -4077,21 +4210,21 @@
       <c r="AB24">
         <v>1</v>
       </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
       </c>
       <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
         <v>3</v>
       </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
       <c r="AJ24">
         <v>0</v>
       </c>
@@ -4138,6 +4271,12 @@
         <v>0</v>
       </c>
       <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
         <v>0</v>
       </c>
     </row>
@@ -4162,12 +4301,6 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25">
         <v>1</v>
       </c>
@@ -4175,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -4196,54 +4329,54 @@
         <v>0</v>
       </c>
       <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>2</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>1</v>
       </c>
       <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
         <v>3</v>
       </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
         <v>14</v>
       </c>
-      <c r="AG25">
-        <v>1</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25">
         <v>0</v>
@@ -4291,6 +4424,12 @@
         <v>0</v>
       </c>
       <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
         <v>0</v>
       </c>
     </row>
@@ -4319,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -4328,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4363,30 +4502,30 @@
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <v>0</v>
       </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
         <v>0</v>
       </c>
       <c r="AG26">
@@ -4444,6 +4583,12 @@
         <v>0</v>
       </c>
       <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
         <v>0</v>
       </c>
     </row>
@@ -4481,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -4502,13 +4647,13 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -4516,17 +4661,17 @@
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
       <c r="Z27">
         <v>0</v>
       </c>
@@ -4534,13 +4679,13 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>1</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -4555,16 +4700,16 @@
         <v>0</v>
       </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -4597,6 +4742,12 @@
         <v>0</v>
       </c>
       <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
         <v>0</v>
       </c>
     </row>
@@ -4625,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -4634,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -4652,13 +4803,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
         <v>2</v>
@@ -4667,40 +4818,40 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="inlineStr">
         <is>
           <t>1a</t>
         </is>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>2</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
-      </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
         <v>3</v>
       </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
         <v>13</v>
       </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
       <c r="AI28">
         <v>0</v>
       </c>
@@ -4711,22 +4862,22 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28">
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -4750,6 +4901,12 @@
         <v>0</v>
       </c>
       <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
         <v>0</v>
       </c>
     </row>
@@ -4775,10 +4932,10 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -4787,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -4808,46 +4965,46 @@
         <v>0</v>
       </c>
       <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>2</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29">
         <v>1</v>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="inlineStr">
         <is>
           <t>1a</t>
         </is>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <v>2</v>
       </c>
-      <c r="Y29">
-        <v>1</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
       <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
         <v>2</v>
       </c>
-      <c r="AB29">
+      <c r="AD29">
         <v>3</v>
       </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
       <c r="AG29">
         <v>0</v>
       </c>
@@ -4864,13 +5021,13 @@
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -4903,6 +5060,12 @@
         <v>0</v>
       </c>
       <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
         <v>0</v>
       </c>
     </row>
@@ -4930,9 +5093,6 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
         <v>1</v>
       </c>
@@ -4940,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -4961,13 +5121,13 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -4975,41 +5135,41 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="inlineStr">
         <is>
           <t>1a</t>
         </is>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <v>3</v>
       </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
       <c r="AA30">
         <v>1</v>
       </c>
       <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
         <v>3</v>
       </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
         <v>11</v>
       </c>
-      <c r="AG30">
+      <c r="AI30">
         <v>3</v>
       </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
       <c r="AJ30">
         <v>0</v>
       </c>
@@ -5017,13 +5177,13 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
         <v>0</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -5056,6 +5216,12 @@
         <v>0</v>
       </c>
       <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
         <v>0</v>
       </c>
     </row>
@@ -5081,7 +5247,7 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -5093,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -5114,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -5128,38 +5294,38 @@
       <c r="V31">
         <v>1</v>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="inlineStr">
         <is>
           <t>1a</t>
         </is>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <v>3</v>
       </c>
-      <c r="Y31">
+      <c r="AA31">
         <v>3</v>
       </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
-        <v>1</v>
-      </c>
       <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
         <v>3</v>
       </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
         <v>14</v>
       </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
       <c r="AI31">
         <v>0</v>
       </c>
@@ -5170,13 +5336,13 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
         <v>0</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -5209,6 +5375,12 @@
         <v>0</v>
       </c>
       <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
         <v>0</v>
       </c>
     </row>
@@ -5246,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -5258,16 +5430,16 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -5279,40 +5451,40 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="inlineStr">
         <is>
           <t>1a</t>
         </is>
       </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
         <v>2</v>
       </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32">
-        <v>1</v>
-      </c>
       <c r="AB32">
         <v>1</v>
       </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
         <v>4</v>
       </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
       <c r="AI32">
         <v>0</v>
       </c>
@@ -5362,6 +5534,12 @@
         <v>0</v>
       </c>
       <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
         <v>0</v>
       </c>
     </row>
@@ -5390,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -5399,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -5411,16 +5589,16 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -5432,42 +5610,42 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="inlineStr">
         <is>
           <t>1a</t>
         </is>
       </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
         <v>2</v>
       </c>
-      <c r="Z33">
+      <c r="AB33">
         <v>2</v>
       </c>
-      <c r="AA33">
-        <v>1</v>
-      </c>
-      <c r="AB33">
-        <v>1</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
         <v>15</v>
       </c>
-      <c r="AG33">
-        <v>1</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
       <c r="AI33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -5515,6 +5693,12 @@
         <v>0</v>
       </c>
       <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
         <v>0</v>
       </c>
     </row>
@@ -5540,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -5549,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -5570,52 +5754,52 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
         <v>2</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
       <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
         <v>3</v>
       </c>
-      <c r="Z34">
-        <v>1</v>
-      </c>
-      <c r="AA34">
-        <v>1</v>
-      </c>
       <c r="AB34">
         <v>1</v>
       </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
         <v>5</v>
       </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
       <c r="AI34">
         <v>0</v>
       </c>
@@ -5665,6 +5849,12 @@
         <v>0</v>
       </c>
       <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
         <v>0</v>
       </c>
     </row>
@@ -5699,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -5720,13 +5910,13 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -5734,38 +5924,38 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
         <v>2</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>1</v>
-      </c>
       <c r="AB35">
-        <v>1</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
         <v>5</v>
       </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
       <c r="AI35">
         <v>0</v>
       </c>
@@ -5776,13 +5966,13 @@
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
         <v>0</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -5815,6 +6005,12 @@
         <v>0</v>
       </c>
       <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
         <v>0</v>
       </c>
     </row>
